--- a/src/chart-disaster/!사건-언론.xlsx
+++ b/src/chart-disaster/!사건-언론.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DataScience\Project-election\election\src\chart-disaster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DataScience\[Git-Duckfin] Selection2024\src\chart-disaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2BFC4E-E9C7-480A-B1F6-E6B2C752E46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1115FD-371A-4D1B-A266-12A40023E416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41220" yWindow="2115" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41565" yWindow="2460" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,9 +399,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -687,10 +686,13 @@
   <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -720,7 +722,7 @@
       <c r="I1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -758,7 +760,7 @@
       <c r="I2" s="1">
         <v>61</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>1</v>
       </c>
       <c r="K2" s="1">
@@ -796,7 +798,7 @@
       <c r="I3" s="1">
         <v>47</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>12</v>
       </c>
       <c r="K3" s="1">
@@ -834,7 +836,7 @@
       <c r="I4" s="1">
         <v>176</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>2</v>
       </c>
       <c r="K4" s="1">
@@ -872,7 +874,7 @@
       <c r="I5" s="1">
         <v>81</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>3</v>
       </c>
       <c r="K5" s="1">
@@ -910,7 +912,7 @@
       <c r="I6" s="1">
         <v>65</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>5</v>
       </c>
       <c r="K6" s="1">
@@ -948,7 +950,7 @@
       <c r="I7" s="1">
         <v>140</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>3</v>
       </c>
       <c r="K7" s="1">
@@ -986,7 +988,7 @@
       <c r="I8" s="1">
         <v>79</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>11</v>
       </c>
       <c r="K8" s="1">
@@ -1024,7 +1026,7 @@
       <c r="I9" s="1">
         <v>102</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>10</v>
       </c>
       <c r="K9" s="1">
@@ -1062,7 +1064,7 @@
       <c r="I10" s="1">
         <v>195</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>27</v>
       </c>
       <c r="K10" s="1">
@@ -1100,7 +1102,7 @@
       <c r="I11" s="1">
         <v>85</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>15</v>
       </c>
       <c r="K11" s="1">
@@ -1138,7 +1140,7 @@
       <c r="I12" s="1">
         <v>76</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>4</v>
       </c>
       <c r="K12" s="1">
@@ -1176,7 +1178,7 @@
       <c r="I13" s="1">
         <v>202</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>4</v>
       </c>
       <c r="K13" s="1">
@@ -1214,7 +1216,7 @@
       <c r="I14" s="1">
         <v>162</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>5</v>
       </c>
       <c r="K14" s="1">
@@ -1252,7 +1254,7 @@
       <c r="I15" s="1">
         <v>139</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>18</v>
       </c>
       <c r="K15" s="1">
@@ -1290,7 +1292,7 @@
       <c r="I16" s="1">
         <v>82</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>6</v>
       </c>
       <c r="K16" s="1">
@@ -1328,7 +1330,7 @@
       <c r="I17" s="1">
         <v>171</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>1</v>
       </c>
       <c r="K17" s="1">
@@ -1366,7 +1368,7 @@
       <c r="I18" s="1">
         <v>86</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>0</v>
       </c>
       <c r="K18" s="1">
@@ -1404,7 +1406,7 @@
       <c r="I19" s="1">
         <v>463</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>6</v>
       </c>
       <c r="K19" s="1">
@@ -1442,7 +1444,7 @@
       <c r="I20" s="1">
         <v>573</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>6</v>
       </c>
       <c r="K20" s="1">
@@ -1480,7 +1482,7 @@
       <c r="I21" s="1">
         <v>615</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>3</v>
       </c>
       <c r="K21" s="1">
@@ -1518,7 +1520,7 @@
       <c r="I22" s="1">
         <v>294</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>11</v>
       </c>
       <c r="K22" s="1">
@@ -1556,7 +1558,7 @@
       <c r="I23" s="1">
         <v>271</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>2</v>
       </c>
       <c r="K23" s="1">
@@ -1594,7 +1596,7 @@
       <c r="I24" s="1">
         <v>55</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>2</v>
       </c>
       <c r="K24" s="1">
@@ -1632,7 +1634,7 @@
       <c r="I25" s="1">
         <v>125</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>3</v>
       </c>
       <c r="K25" s="1">
@@ -1670,7 +1672,7 @@
       <c r="I26" s="1">
         <v>40</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>2</v>
       </c>
       <c r="K26" s="1">
@@ -1708,7 +1710,7 @@
       <c r="I27" s="1">
         <v>43</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <v>7</v>
       </c>
       <c r="K27" s="1">
@@ -1746,7 +1748,7 @@
       <c r="I28" s="1">
         <v>152</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <v>5</v>
       </c>
       <c r="K28" s="1">
@@ -1784,7 +1786,7 @@
       <c r="I29" s="1">
         <v>80</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>5</v>
       </c>
       <c r="K29" s="1">
@@ -1822,7 +1824,7 @@
       <c r="I30" s="1">
         <v>242</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <v>1</v>
       </c>
       <c r="K30" s="1">
@@ -1860,7 +1862,7 @@
       <c r="I31" s="1">
         <v>159</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>7</v>
       </c>
       <c r="K31" s="1">
@@ -1898,7 +1900,7 @@
       <c r="I32" s="1">
         <v>92</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <v>16</v>
       </c>
       <c r="K32" s="1">
@@ -1936,7 +1938,7 @@
       <c r="I33" s="1">
         <v>97</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <v>5</v>
       </c>
       <c r="K33" s="1">
@@ -1974,7 +1976,7 @@
       <c r="I34" s="1">
         <v>82</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="1">
         <v>2</v>
       </c>
       <c r="K34" s="1">
@@ -2012,7 +2014,7 @@
       <c r="I35" s="1">
         <v>39</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <v>0</v>
       </c>
       <c r="K35" s="1">
@@ -2050,7 +2052,7 @@
       <c r="I36" s="1">
         <v>67</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="1">
         <v>0</v>
       </c>
       <c r="K36" s="1">
@@ -2088,7 +2090,7 @@
       <c r="I37" s="1">
         <v>70</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="1">
         <v>13</v>
       </c>
       <c r="K37" s="1">
@@ -2126,7 +2128,7 @@
       <c r="I38" s="1">
         <v>33</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="1">
         <v>6</v>
       </c>
       <c r="K38" s="1">
@@ -2164,7 +2166,7 @@
       <c r="I39" s="1">
         <v>51</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="1">
         <v>11</v>
       </c>
       <c r="K39" s="1">
@@ -2202,7 +2204,7 @@
       <c r="I40" s="1">
         <v>44</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="1">
         <v>3</v>
       </c>
       <c r="K40" s="1">
@@ -2240,7 +2242,7 @@
       <c r="I41" s="1">
         <v>46</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <v>0</v>
       </c>
       <c r="K41" s="1">
@@ -2278,7 +2280,7 @@
       <c r="I42" s="1">
         <v>56</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <v>6</v>
       </c>
       <c r="K42" s="1">
@@ -2316,7 +2318,7 @@
       <c r="I43" s="1">
         <v>18</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="1">
         <v>8</v>
       </c>
       <c r="K43" s="1">
@@ -2354,7 +2356,7 @@
       <c r="I44" s="1">
         <v>38</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="1">
         <v>19</v>
       </c>
       <c r="K44" s="1">
@@ -2392,7 +2394,7 @@
       <c r="I45" s="1">
         <v>61</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="1">
         <v>10</v>
       </c>
       <c r="K45" s="1">
@@ -2430,7 +2432,7 @@
       <c r="I46" s="1">
         <v>25</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="1">
         <v>7</v>
       </c>
       <c r="K46" s="1">
@@ -2468,7 +2470,7 @@
       <c r="I47" s="1">
         <v>32</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="1">
         <v>3</v>
       </c>
       <c r="K47" s="1">
@@ -2506,7 +2508,7 @@
       <c r="I48" s="1">
         <v>43</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="1">
         <v>12</v>
       </c>
       <c r="K48" s="1">
@@ -2544,7 +2546,7 @@
       <c r="I49" s="1">
         <v>20</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="1">
         <v>23</v>
       </c>
       <c r="K49" s="1">
@@ -2582,7 +2584,7 @@
       <c r="I50" s="1">
         <v>57</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="1">
         <v>13</v>
       </c>
       <c r="K50" s="1">
@@ -2620,7 +2622,7 @@
       <c r="I51" s="1">
         <v>81</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="1">
         <v>10</v>
       </c>
       <c r="K51" s="1">
@@ -2658,7 +2660,7 @@
       <c r="I52" s="1">
         <v>62</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="1">
         <v>7</v>
       </c>
       <c r="K52" s="1">
@@ -2696,7 +2698,7 @@
       <c r="I53" s="1">
         <v>54</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="1">
         <v>11</v>
       </c>
       <c r="K53" s="1">
@@ -2734,7 +2736,7 @@
       <c r="I54" s="1">
         <v>222</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="1">
         <v>19</v>
       </c>
       <c r="K54" s="1">
@@ -2772,7 +2774,7 @@
       <c r="I55" s="1">
         <v>228</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="1">
         <v>21</v>
       </c>
       <c r="K55" s="1">
@@ -2810,7 +2812,7 @@
       <c r="I56" s="1">
         <v>279</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="1">
         <v>10</v>
       </c>
       <c r="K56" s="1">
@@ -2848,7 +2850,7 @@
       <c r="I57" s="1">
         <v>278</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="1">
         <v>21</v>
       </c>
       <c r="K57" s="1">
@@ -2886,7 +2888,7 @@
       <c r="I58" s="1">
         <v>265</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="1">
         <v>13</v>
       </c>
       <c r="K58" s="1">
@@ -2924,7 +2926,7 @@
       <c r="I59" s="1">
         <v>118</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="1">
         <v>5</v>
       </c>
       <c r="K59" s="1">
@@ -2962,7 +2964,7 @@
       <c r="I60" s="1">
         <v>157</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="1">
         <v>5</v>
       </c>
       <c r="K60" s="1">
@@ -3000,7 +3002,7 @@
       <c r="I61" s="1">
         <v>276</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="1">
         <v>58</v>
       </c>
       <c r="K61" s="1">
@@ -3038,7 +3040,7 @@
       <c r="I62" s="1">
         <v>132</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="1">
         <v>42</v>
       </c>
       <c r="K62" s="1">
@@ -3076,7 +3078,7 @@
       <c r="I63" s="1">
         <v>195</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="1">
         <v>118</v>
       </c>
       <c r="K63" s="1">
@@ -3114,7 +3116,7 @@
       <c r="I64" s="1">
         <v>336</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="1">
         <v>432</v>
       </c>
       <c r="K64" s="1">
@@ -3152,7 +3154,7 @@
       <c r="I65" s="1">
         <v>216</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="1">
         <v>317</v>
       </c>
       <c r="K65" s="1">
@@ -3190,7 +3192,7 @@
       <c r="I66" s="1">
         <v>128</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="1">
         <v>178</v>
       </c>
       <c r="K66" s="1">
@@ -3228,7 +3230,7 @@
       <c r="I67" s="1">
         <v>96</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="1">
         <v>396</v>
       </c>
       <c r="K67" s="1">
@@ -3266,7 +3268,7 @@
       <c r="I68" s="1">
         <v>105</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="1">
         <v>308</v>
       </c>
       <c r="K68" s="1">
@@ -3304,7 +3306,7 @@
       <c r="I69" s="1">
         <v>474</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="1">
         <v>228</v>
       </c>
       <c r="K69" s="1">
@@ -3342,7 +3344,7 @@
       <c r="I70" s="1">
         <v>199</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="1">
         <v>128</v>
       </c>
       <c r="K70" s="1">
@@ -3380,7 +3382,7 @@
       <c r="I71" s="1">
         <v>60</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71" s="1">
         <v>57</v>
       </c>
       <c r="K71" s="1">
@@ -3418,7 +3420,7 @@
       <c r="I72" s="1">
         <v>189</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="1">
         <v>126</v>
       </c>
       <c r="K72" s="1">
@@ -3456,7 +3458,7 @@
       <c r="I73" s="1">
         <v>175</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73" s="1">
         <v>104</v>
       </c>
       <c r="K73" s="1">
@@ -3494,7 +3496,7 @@
       <c r="I74" s="1">
         <v>218</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74" s="1">
         <v>56</v>
       </c>
       <c r="K74" s="1">
@@ -3532,7 +3534,7 @@
       <c r="I75" s="1">
         <v>155</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="1">
         <v>77</v>
       </c>
       <c r="K75" s="1">
@@ -3570,7 +3572,7 @@
       <c r="I76" s="1">
         <v>81</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J76" s="1">
         <v>64</v>
       </c>
       <c r="K76" s="1">
@@ -3608,7 +3610,7 @@
       <c r="I77" s="1">
         <v>126</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77" s="1">
         <v>35</v>
       </c>
       <c r="K77" s="1">
@@ -3646,7 +3648,7 @@
       <c r="I78" s="1">
         <v>86</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="1">
         <v>49</v>
       </c>
       <c r="K78" s="1">
@@ -3684,7 +3686,7 @@
       <c r="I79" s="1">
         <v>48</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79" s="1">
         <v>33</v>
       </c>
       <c r="K79" s="1">
@@ -3722,7 +3724,7 @@
       <c r="I80" s="1">
         <v>34</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="1">
         <v>89</v>
       </c>
       <c r="K80" s="1">
@@ -3760,7 +3762,7 @@
       <c r="I81" s="1">
         <v>143</v>
       </c>
-      <c r="J81" s="2">
+      <c r="J81" s="1">
         <v>93</v>
       </c>
       <c r="K81" s="1">
@@ -3798,7 +3800,7 @@
       <c r="I82" s="1">
         <v>38</v>
       </c>
-      <c r="J82" s="2">
+      <c r="J82" s="1">
         <v>73</v>
       </c>
       <c r="K82" s="1">
@@ -3836,7 +3838,7 @@
       <c r="I83" s="1">
         <v>34</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J83" s="1">
         <v>25</v>
       </c>
       <c r="K83" s="1">
@@ -3874,7 +3876,7 @@
       <c r="I84" s="1">
         <v>53</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J84" s="1">
         <v>28</v>
       </c>
       <c r="K84" s="1">
@@ -3912,7 +3914,7 @@
       <c r="I85" s="1">
         <v>74</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85" s="1">
         <v>21</v>
       </c>
       <c r="K85" s="1">
@@ -3950,7 +3952,7 @@
       <c r="I86" s="1">
         <v>73</v>
       </c>
-      <c r="J86" s="2">
+      <c r="J86" s="1">
         <v>36</v>
       </c>
       <c r="K86" s="1">
@@ -3988,7 +3990,7 @@
       <c r="I87" s="1">
         <v>94</v>
       </c>
-      <c r="J87" s="2">
+      <c r="J87" s="1">
         <v>74</v>
       </c>
       <c r="K87" s="1">
@@ -4026,7 +4028,7 @@
       <c r="I88" s="1">
         <v>19</v>
       </c>
-      <c r="J88" s="2">
+      <c r="J88" s="1">
         <v>28</v>
       </c>
       <c r="K88" s="1">
@@ -4064,7 +4066,7 @@
       <c r="I89" s="1">
         <v>23</v>
       </c>
-      <c r="J89" s="2">
+      <c r="J89" s="1">
         <v>40</v>
       </c>
       <c r="K89" s="1">
@@ -4102,7 +4104,7 @@
       <c r="I90" s="1">
         <v>28</v>
       </c>
-      <c r="J90" s="2">
+      <c r="J90" s="1">
         <v>19</v>
       </c>
       <c r="K90" s="1">
@@ -4140,7 +4142,7 @@
       <c r="I91" s="1">
         <v>89</v>
       </c>
-      <c r="J91" s="2">
+      <c r="J91" s="1">
         <v>22</v>
       </c>
       <c r="K91" s="1">
@@ -4178,7 +4180,7 @@
       <c r="I92" s="1">
         <v>53</v>
       </c>
-      <c r="J92" s="2">
+      <c r="J92" s="1">
         <v>25</v>
       </c>
       <c r="K92" s="1">
@@ -4216,7 +4218,7 @@
       <c r="I93" s="1">
         <v>29</v>
       </c>
-      <c r="J93" s="2">
+      <c r="J93" s="1">
         <v>45</v>
       </c>
       <c r="K93" s="1">
@@ -4254,7 +4256,7 @@
       <c r="I94" s="1">
         <v>34</v>
       </c>
-      <c r="J94" s="2">
+      <c r="J94" s="1">
         <v>468</v>
       </c>
       <c r="K94" s="1">
@@ -4292,7 +4294,7 @@
       <c r="I95" s="1">
         <v>82</v>
       </c>
-      <c r="J95" s="2">
+      <c r="J95" s="1">
         <v>314</v>
       </c>
       <c r="K95" s="1">
@@ -4330,7 +4332,7 @@
       <c r="I96" s="1">
         <v>22</v>
       </c>
-      <c r="J96" s="2">
+      <c r="J96" s="1">
         <v>387</v>
       </c>
       <c r="K96" s="1">
@@ -4368,7 +4370,7 @@
       <c r="I97" s="1">
         <v>52</v>
       </c>
-      <c r="J97" s="2">
+      <c r="J97" s="1">
         <v>172</v>
       </c>
       <c r="K97" s="1">
